--- a/صيدليات دكتور مصطفي طلعت_2026-01-05_15-26.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-05_15-26.xlsx
@@ -41,12 +41,15 @@
     <t>ANGIOFOX (EFFOX) 25MG LONG 30 CAPS.</t>
   </si>
   <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>ARCOXIA 90 MG 14 F.C. TABS</t>
+  </si>
+  <si>
     <t>1:0</t>
   </si>
   <si>
-    <t>ARCOXIA 90 MG 14 F.C. TABS</t>
-  </si>
-  <si>
     <t>ATROVENT 250MCG/2ML 20 UNIT DOSE VIAL</t>
   </si>
   <si>
@@ -65,9 +68,6 @@
     <t>BETAPRONATE PLUS CREAM 30 GM</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>BETOLVEX 1MG/ML 2 AMP</t>
   </si>
   <si>
@@ -176,7 +176,7 @@
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
-    <t>2:2</t>
+    <t>1:2</t>
   </si>
   <si>
     <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
@@ -899,7 +899,7 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c t="s" r="H6" s="8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
@@ -917,7 +917,7 @@
         <v>4</v>
       </c>
       <c t="s" r="B7" s="7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -925,7 +925,7 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c t="s" r="H7" s="8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
@@ -943,7 +943,7 @@
         <v>5</v>
       </c>
       <c t="s" r="B8" s="7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -951,7 +951,7 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c t="s" r="H8" s="8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
@@ -969,7 +969,7 @@
         <v>6</v>
       </c>
       <c t="s" r="B9" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -977,7 +977,7 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c t="s" r="H9" s="8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
@@ -995,7 +995,7 @@
         <v>7</v>
       </c>
       <c t="s" r="B10" s="7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -1003,7 +1003,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c t="s" r="H10" s="8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
@@ -1021,7 +1021,7 @@
         <v>8</v>
       </c>
       <c t="s" r="B11" s="7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -1029,7 +1029,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c t="s" r="H11" s="8">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
@@ -1055,7 +1055,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
@@ -1081,7 +1081,7 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
@@ -1107,7 +1107,7 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
@@ -1133,7 +1133,7 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
@@ -1159,7 +1159,7 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
@@ -1185,7 +1185,7 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
@@ -1237,7 +1237,7 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
@@ -1289,7 +1289,7 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
@@ -1315,7 +1315,7 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
@@ -1341,7 +1341,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
@@ -1393,7 +1393,7 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
@@ -1497,7 +1497,7 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
@@ -1523,7 +1523,7 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
@@ -1549,7 +1549,7 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
@@ -1575,7 +1575,7 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
@@ -1601,7 +1601,7 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
@@ -1627,7 +1627,7 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
@@ -1679,7 +1679,7 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
@@ -1705,7 +1705,7 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
@@ -1757,7 +1757,7 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
@@ -1887,7 +1887,7 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
@@ -1913,7 +1913,7 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
@@ -1939,7 +1939,7 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
@@ -1965,7 +1965,7 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
@@ -1991,7 +1991,7 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
@@ -2069,7 +2069,7 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
